--- a/data/SummerSchool_dataset.xlsx
+++ b/data/SummerSchool_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oberbics\OneDrive - JGU\Dokumente\IEG_Mainz\Publikationen\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03FF66D3-EB5C-4DDA-8D82-2CDC3FA82B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D83D1E7F-CF71-4C29-80E6-84F5D9E9E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEF54D20-F070-40C9-8202-8C4D83D89A95}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t xml:space="preserve"> the same qualities, are more moderate here than in the foreign market. bAHrager Strasse, Dresden, opposite Cook's Tourist Bureau DRESDEN CHINA Trade Mark. Establ. 1843. : Own workmanship :: Lowest prices Retail :: Export : Wholesale : A. E. STEPHAN , 4, Reichs Strasse succ. to Helena Wolfsohn Nachf. Leopold Elb. Otto Mayer, PHOTOGRAPHER 38 Prager Strasse 38 ^ K Tel. 446. By appointment to T. M. the King of Saxony WmR and. the- Emperor of Austria. - . Superb artistic work. Moderate terms. RICHARD UEHSEHER, ZinzenM IWm 16. ** DRESDEN CHINA. ** Cotfee tups, place-plates, tea tups. etc. Portraits from photos on ivory and thina. Speciality : buttons. » Lessons in painting. REVOLUTIONJIN NICARAGUA. New York, January 3. The Sun publishes a despatch from New Orleans which states that troops from Honduras, Guatemala, and Salvador have concentrated at Amapala with the object of attacking Nicaragua and forcing the President to abdicate. THE DAIL9 RECORD FUND FOR THE RELIEF OF SUFFERERS FROM THE EARTHQUAKE IN SICILY AND CALABRIA. We have great pleasure in acknowledging receipt of the following further subscriptions to the above fund:— E. P. and others ... . .. Pension Ilm 58.00 L - F - c 40.00 Mrs - B 25.00 H. M. S 10.00 G io.oo • • • 10.00 w. j. w 10.00 T - E 5.00 C T • ....... 5.00 JS255.00 Amount already acknowledged ... 471.50 Total up to January 4 . . . J&amp;726.50 All contributions to the Fund which we have re ceived up to date have been handed over to the Dresden branch of the Fund for “die Opfer der Erd- bebenkatastrophe in Sicilien und Calabrien” (the vic tims of the earthquake catastrophe in Sicily and Calabria), at the town hall. When desired, how ever, contributions are forwarded to the Lord Mayor’s Fund, Mansion House, London, and for these a special list is kept at our office apart from the original qne. It is as well to point out that all monies collected in Germany will be for warded to Sicily and Calabria and distributed to sufferers, entirely irrespective of nationality. KING LEOPOLD AND zERIAL NAVIGATION. Brussels, January 2. According to a newspaper report King Leopold has offered a prize of 25,000 francs, to be awarded to the author of the best work on serial navigation and the solution of the flying problem. NATIVE DIFFERENCES IN INDIA. Calcutta, January 4. . An encounter took place yesterday in one of the suburbs between Mahomedans and Hindus, and be came so violent that the military were called out. On the appearance of the troops, they were attacked by both bodies of combatants and eventually ob liged to fire on the mob. More than 200 of their assailants were arrested. THE GREAT EARTHQUAKE. QUEEN OF ITALY INJURED. BRITISH AND AMERICANS SAFE. Rome, January 3. Memorial services were held in every church in Rome today for the victims of the earthquake. High Mass was celebrated at St. Peter’s by Mgr. Ceppe- telli, Patriarch of Constantinople, assisted by Car dinal Rampolla. Collections were made in aid of earthquake sufferers, and stands have been erected on the streets as collecting stations. Flags are still waving at half-mast. It has been remarked that °r Year ’ s Da y King Victor Emmanuel, instead of being in the Throne Room on the Quirinal Hill, stood on a much* higher Throne, wherefrom his figure, dignified by the nobility of his deeds, ap pealed not to Italians only, but to the entire world. It must be pointed out that the King did not go to Messina and Reggio for formality, but for. earnest work. Reports from those places say that he was indefatigable and showed wonderful activity, leaving no point of the fallen town unvisited, super vising the work, giving advice, infusing energy and courage, and, indeed, electrifying the atmosphere. On some occasions tottering walls, remains of high buildings, fell at his feet; on others he was sur rounded by bleeding and injured victims, who, as though resuscitated on seeing him, shouted enthusi astically, “Having the King we have all.” It may be safely said that no one in Italy envies the King so much as the Pope, who has always felt his place was down there. Great Britain is especially distinguishing herself, not only through the admirable work of her magni ficent bluejackets in the land of the dead, but also in pecuniary assistance. It is asserted that a party of 20 English-speaking persons shortly after the ■earthquake escaped from Messina to Palermo, cross ing unharmed the large tract of country beyond Messina where the upheaval had destroyed the rail way. Miss Evelyn Peirce, interviewed, said the death of her cousin, Mr. Joseph Peirce, the American Vice- Consul at Messina, was most cruel. ; He was the first to realise that the terrible shaking which had awakened him was an earthquake, and urged his wife to take the smaller children and escape, while he rushed to the room where the elder children slept to rouse them. While he was so doing a tidal wave completed the work of the earthquake; the totter ing walls, from which the furniture had already been thrown in different directions, collapsed, and the whole party, including four children, was buried dead under the three floors of the house. Signor Orlando, Minister of Justice, has sent the following telegram to Signor Giolitti, the Premier, dated Messina:—“Queen Elena is still working de votedly at the hospital. A panic occurred in the hospital yesterday evening in consequence of an other slight earthquake shock, and the Queen, in trying to prevent a stampede, was slightly hurt. Rome, January 3. The Central News correspondent had an interview this morning with Mr. Oswald Thomas, an English survivor of the Messina disaster. He said, “So far as I know there were about 40 English people in Messina, and the majority of them are safe. I had been there for ten months. I had a marvellous es cape from death, for the ceiling of my room fell on me, and the walls were opening all about me My face, as you see, was badly cut. On the op- s id j: „ of the way I saw a palace collapse. With the fall of my house I had been left suspend ed high up, and after a few minutes I dropped down on some beams and made my way to the street. I found the slippers of the concierge, which I put on my feet, and after three tiring hours I reached the harbour, where the British steamer “Drake” was then lying. In company with some of the “Drake’s” crew I went in search of Mr. Bennett (?). At the Consulate we found him with his leg broken, holding a child in his arms. Every thing about him was in ruins, and we had to rescue the two with ropes under the greatest difficulties Mr. Bennett begged us to go and look for his wife On the following day we found a woman’s body and took it to Palermo, but Mr. Bennett said the °orpse was that of one of his servants.” Mr. (Continued on page 3.) </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;article&gt; THE DAIL9 RECORD FUND FOR THE RELIEF OF SUFFERERS FROM THE EARTHQUAKE IN SICILY AND CALABRIA. We have great pleasure in acknowledging receipt of the following further subscriptions to the above fund:— E. P. and others ... . .. Pension Ilm 58.00 L - F - c 40.00 Mrs - B 25.00 H. M. S 10.00 G io.oo • • • 10.00 w. j. w 10.00 T - E 5.00 C T • ....... 5.00 JS255.00 Amount already acknowledged ... 471.50 Total up to January 4 . . . J&amp;726.50 All contributions to the Fund which we have re ceived up to date have been handed over to the Dresden branch of the Fund for “die Opfer der Erd- bebenkatastrophe in Sicilien und Calabrien” (the vic tims of the earthquake catastrophe in Sicily and Calabria), at the town hall. When desired, how ever, contributions are forwarded to the Lord Mayor’s Fund, Mansion House, London, and for these a special list is kept at our office apart from the original qne. It is as well to point out that all monies collected in Germany will be for warded to Sicily and Calabria and distributed to sufferers, entirely irrespective of nationality.&lt;/article&gt;&lt;article&gt;THE GREAT EARTHQUAKE. QUEEN OF ITALY INJURED. BRITISH AND AMERICANS SAFE. Rome, January 3. Memorial services were held in every church in Rome today for the victims of the earthquake. High Mass was celebrated at St. Peter’s by Mgr. Ceppe- telli, Patriarch of Constantinople, assisted by Car dinal Rampolla. Collections were made in aid of earthquake sufferers, and stands have been erected on the streets as collecting stations. Flags are still waving at half-mast. It has been remarked that °r Year ’ s Da y King Victor Emmanuel, instead of being in the Throne Room on the Quirinal Hill, stood on a much* higher Throne, wherefrom his figure, dignified by the nobility of his deeds, ap pealed not to Italians only, but to the entire world. It must be pointed out that the King did not go to Messina and Reggio for formality, but for. earnest work. Reports from those places say that he was indefatigable and showed wonderful activity, leaving no point of the fallen town unvisited, super vising the work, giving advice, infusing energy and courage, and, indeed, electrifying the atmosphere. On some occasions tottering walls, remains of high buildings, fell at his feet; on others he was sur rounded by bleeding and injured victims, who, as though resuscitated on seeing him, shouted enthusi astically, “Having the King we have all.” It may be safely said that no one in Italy envies the King so much as the Pope, who has always felt his place was down there. Great Britain is especially distinguishing herself, not only through the admirable work of her magni ficent bluejackets in the land of the dead, but also in pecuniary assistance. It is asserted that a party of 20 English-speaking persons shortly after the ■earthquake escaped from Messina to Palermo, cross ing unharmed the large tract of country beyond Messina where the upheaval had destroyed the rail way. Miss Evelyn Peirce, interviewed, said the death of her cousin, Mr. Joseph Peirce, the American Vice- Consul at Messina, was most cruel. ; He was the first to realise that the terrible shaking which had awakened him was an earthquake, and urged his wife to take the smaller children and escape, while he rushed to the room where the elder children slept to rouse them. While he was so doing a tidal wave completed the work of the earthquake; the totter ing walls, from which the furniture had already been thrown in different directions, collapsed, and the whole party, including four children, was buried dead under the three floors of the house. Signor Orlando, Minister of Justice, has sent the following telegram to Signor Giolitti, the Premier, dated Messina:—“Queen Elena is still working de votedly at the hospital. A panic occurred in the hospital yesterday evening in consequence of an other slight earthquake shock, and the Queen, in trying to prevent a stampede, was slightly hurt. Rome, January 3. The Central News correspondent had an interview this morning with Mr. Oswald Thomas, an English survivor of the Messina disaster. He said, “So far as I know there were about 40 English people in Messina, and the majority of them are safe. I had been there for ten months. I had a marvellous es cape from death, for the ceiling of my room fell on me, and the walls were opening all about me My face, as you see, was badly cut. On the op- s id j: „ of the way I saw a palace collapse. With the fall of my house I had been left suspend ed high up, and after a few minutes I dropped down on some beams and made my way to the street. I found the slippers of the concierge, which I put on my feet, and after three tiring hours I reached the harbour, where the British steamer “Drake” was then lying. In company with some of the “Drake’s” crew I went in search of Mr. Bennett (?). At the Consulate we found him with his leg broken, holding a child in his arms. Every thing about him was in ruins, and we had to rescue the two with ropes under the greatest difficulties Mr. Bennett begged us to go and look for his wife On the following day we found a woman’s body and took it to Palermo, but Mr. Bennett said the °orpse was that of one of his servants.” Mr. (Continued on page 3.)&lt;/article&gt; </t>
-  </si>
-  <si>
     <t>&lt;argument&gt;It is as well to point out that all monies collected in Germany will be forwarded to Sicily and Calabria and distributed to sufferers, entirely irrespective of nationality.&lt;/argument&gt;
 &lt;claim&gt;The relief distribution system is fair and non-discriminatory.&lt;/claim&gt;
 &lt;explanation&gt;This statement implicitly argues for the legitimacy and moral correctness of the fund by emphasizing its non-discriminatory nature, addressing potential concerns about national bias in aid distribution.&lt;/explanation&gt;
@@ -311,6 +308,9 @@
 &lt;claim&gt;The authorities' ban on excavation work prevented rescue efforts and led to unnecessary deaths.&lt;/claim&gt;
 &lt;explanation&gt;The argument explicitly states that living victims were found after authorities banned excavation work, that available soldiers could have been used for rescue but weren't, and that desperate people were left to die for twenty days without help. The text directly criticizes the authorities' decision to halt rescue operations.&lt;/explanation&gt;
 &lt;human_verification_needed&gt;False&lt;/human_verification_needed&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;article&gt;THE GREAT EARTHQUAKE. QUEEN OF ITALY INJURED. BRITISH AND AMERICANS SAFE. Rome, January 3. Memorial services were held in every church in Rome today for the victims of the earthquake. High Mass was celebrated at St. Peter’s by Mgr. Ceppe- telli, Patriarch of Constantinople, assisted by Car dinal Rampolla. Collections were made in aid of earthquake sufferers, and stands have been erected on the streets as collecting stations. Flags are still waving at half-mast. It has been remarked that °r Year ’ s Da y King Victor Emmanuel, instead of being in the Throne Room on the Quirinal Hill, stood on a much* higher Throne, wherefrom his figure, dignified by the nobility of his deeds, ap pealed not to Italians only, but to the entire world. It must be pointed out that the King did not go to Messina and Reggio for formality, but for. earnest work. Reports from those places say that he was indefatigable and showed wonderful activity, leaving no point of the fallen town unvisited, super vising the work, giving advice, infusing energy and courage, and, indeed, electrifying the atmosphere. On some occasions tottering walls, remains of high buildings, fell at his feet; on others he was sur rounded by bleeding and injured victims, who, as though resuscitated on seeing him, shouted enthusi astically, “Having the King we have all.” It may be safely said that no one in Italy envies the King so much as the Pope, who has always felt his place was down there. Great Britain is especially distinguishing herself, not only through the admirable work of her magni ficent bluejackets in the land of the dead, but also in pecuniary assistance. It is asserted that a party of 20 English-speaking persons shortly after the ■earthquake escaped from Messina to Palermo, cross ing unharmed the large tract of country beyond Messina where the upheaval had destroyed the rail way. Miss Evelyn Peirce, interviewed, said the death of her cousin, Mr. Joseph Peirce, the American Vice- Consul at Messina, was most cruel. ; He was the first to realise that the terrible shaking which had awakened him was an earthquake, and urged his wife to take the smaller children and escape, while he rushed to the room where the elder children slept to rouse them. While he was so doing a tidal wave completed the work of the earthquake; the totter ing walls, from which the furniture had already been thrown in different directions, collapsed, and the whole party, including four children, was buried dead under the three floors of the house. Signor Orlando, Minister of Justice, has sent the following telegram to Signor Giolitti, the Premier, dated Messina:—“Queen Elena is still working de votedly at the hospital. A panic occurred in the hospital yesterday evening in consequence of an other slight earthquake shock, and the Queen, in trying to prevent a stampede, was slightly hurt. Rome, January 3. The Central News correspondent had an interview this morning with Mr. Oswald Thomas, an English survivor of the Messina disaster. He said, “So far as I know there were about 40 English people in Messina, and the majority of them are safe. I had been there for ten months. I had a marvellous es cape from death, for the ceiling of my room fell on me, and the walls were opening all about me My face, as you see, was badly cut. On the op- s id j: „ of the way I saw a palace collapse. With the fall of my house I had been left suspend ed high up, and after a few minutes I dropped down on some beams and made my way to the street. I found the slippers of the concierge, which I put on my feet, and after three tiring hours I reached the harbour, where the British steamer “Drake” was then lying. In company with some of the “Drake’s” crew I went in search of Mr. Bennett (?). At the Consulate we found him with his leg broken, holding a child in his arms. Every thing about him was in ruins, and we had to rescue the two with ropes under the greatest difficulties Mr. Bennett begged us to go and look for his wife On the following day we found a woman’s body and took it to Palermo, but Mr. Bennett said the °orpse was that of one of his servants.” Mr. (Continued on page 3.)&lt;/article&gt; </t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C0781-C104-46FF-8C00-3D3153442AA8}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,21 +932,21 @@
         <v>52</v>
       </c>
       <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
         <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -961,13 +961,13 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>58</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
       </c>
       <c r="K8" t="s">
         <v>48</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -996,27 +996,27 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1031,27 +1031,27 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1066,16 +1066,16 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>76</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/SummerSchool_dataset.xlsx
+++ b/data/SummerSchool_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oberbics\OneDrive - JGU\Dokumente\IEG_Mainz\Publikationen\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgumainz-my.sharepoint.com/personal/oberbics_uni-mainz_de/Documents/Dokumente/IEG_Mainz/Publikationen/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D83D1E7F-CF71-4C29-80E6-84F5D9E9E094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F71050E-286F-433C-A1B8-BDAC7A213898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEF54D20-F070-40C9-8202-8C4D83D89A95}"/>
   </bookViews>
@@ -301,9 +301,6 @@
     <t xml:space="preserve"> vielleicht am tragischsten der schmerzvolle Aus ruf der Dichterin Charlotte Brontö berühren, die nach einem traurigen Geschick in einer späten Ehe ein großes Gluck gefunden hatte und ei nur ein Jahr auskosten durfte. Als sie die Angst und Sorge auf den Gesichtern ihrer Liebsten sah, sagte sie: ,O, ich gebe noch nicht in den Tod, oder doch? Er wird uns nicht trennen; wir sind so glücklich ge- wesen.' Da» letzte Wort der Dichterin der Portugiesischen Sonette Elisabeth Barret-Browntng hat ihr Gatte Robert Browning aus gezeichnet. Al» er sic fragt«: .Wie fühlst Du Dich', erhielt er die Antwort: .Schön.' Diesem abschlteß nden Bekenntnis eine» in Schönheit verbrachten Lebens stellt sich Luthers letztes Wort zur Seire, der auf die Frage von Justu« Jonas, ob er bei icinem Glauben an Christus und die Lehre, die er gepredigt, beständig bleibe, fest und klar antwortete: .Ja.' _______ * Drei Wochen nach der Katastrophe. Sin anschauliche» Bild von dem heurigen Siand der Dinge in dem unglücklichen Messina gibt der Korrespondent des Corriere dclla sera, Guelsu CIvinini, der jetzt »ach dreiwöchigem Aufenthalt an der Stätte der Katastrophe Sizilien wieder verläßt. Er hat am Sonnabend einen letzten Gang durch die zerstörte Stadt unternommen und ist dabei in der Oberstadt in Gegenden gekommen, wo noch heute, zwanzig Tage nach dem furchtbaren Unglück, die Rcttungöaibetten nicht begonnen haben, wo unter oem Schutte die in Verwesung übergegangcnen L-ich-nreste noch emporragen. Am Morgen noch hatte man unter den Dtuinen vier lebende Opfer des ErdbihcnS gefunden und geborgen, virr Tage nachdem alle AufräumungSarbetten von den Behörden untersagt worben waren. .ES mag eine zweifelhafte Frmde für die qrwescn sein, die so frühzetltg die Trümmer gewisiermaßen unter Siegel gelegt hatten. Seit Montag ist keine Ausgrabung, keine Nachforschung und keine Aufräumung mehr unternommen worden, man wollte alle Erlaubnisse zu Ausgrabungen verweigern und begründete da» mit de» juristischen Schwierigkeiten und mit den Verwirrungen, die damit über das Pnoateigenrum heretnbrechrn könnten. Unten am User biwakierten tausend Soldaten und Matrosen, die dazu hätten ver wendet werde» können, unter den Ruinen weiteizuiorschen, ob noch lebende W-Icn gerettet werden könnten. Aber es geschah nichts. Eine wirkliche umfasiende methodische Durchforschung der Ruinen hat über haupt nie stattgefunden. Zn den ersten Tagen grub man nur nach den Kast-nschränken und den Registern. Manchmal gelang es dabet, auch einen Menschen dem Grabe zu entreißen; jetzt mit dem neuen Verbot Ist auch diese Rettungsmöglichkeit noch geschwunden. Die Ruinen waren verlassen, und nur hin und wieder zog eine Patrouille duich di« Trümmer, mit dem Aufträge, die Katzen zu erschießen und Ep tzbuben Icstzunehmen. Und wählend besten gruben unter Trümmern verzweiielte Menschen umher, die nicht sterben wollte», zwanzig Tage lang, und denen niemand Hülfe b,achte. Wer mag es ahnen, wie viele grauenhafte Tragödien sich unter den Trümmirn Messina» im Dunkeln und »»gehört vollendet haben. Heute unternahm einen neuen Gang durch r, wo an den . Illinois noch emsig im Schutt graben, um d:e Leiche ihres Konsul» und seiner Frau zu bergen. Je weiter wie vordrangen, je mehr verminderten sich die Zeichen, die die RettungStruppo aus ihrem Wege zurückaelaffen hatten, und schließlich erreichten wir einen Teil des TrüwmcifeldeS, wo alle Spuren aushörlen. Ein dumpfe» Schweigen lagert über der Stätte. In den eingefallenen Häuiern stehen die Türen osten, man lebt noch geöffnete Schränke und Kommoden, dte von ästiger Flucht erzählen, und dann stoßen wir auch auf dte ersten Leichen. Im Schutt liegen sie hier, seit zwanzig Tagen, unter Sonne und Regen. Sie sind da» Zeichen, daß hierher keine Reiter sich verinten. Von irgend einem Gegenstand, der wohl ein Steohsack ist, hängen unter weißen Mörtclstücken die schwarzen Haare einer Frau herunter. Wir nähern uns, räumen den Schutt beiseite und beben die Decken. ES ist ein junges Mädchen, im Bett zusammengekrümmt ist sie gestorben, mit den Armen angst voll den Kopf sich schützend. Entsetzen liegt noch in den Zügen, und der surchtverzerrie Mund scheint den letzten Verzweiflungsschrei noch zurückzuhaiten. Sie hat keinerlei Wunden; vielleichl ist sie erstickt. Wir geben weiter, und in jedem Hause sehen wir Leichen, halbverschüttet vom Mauerwcrt, überall liegen sie umher. Bisweilen ragt et» Fuß oder ein Arm aus dem Schutte; man hat den Eindruck eine» Kirchhofes, der durch eine furchtbare Erd- erschülterung zerstört wurde und seinen Inhalt wahllos auf die E-doberfläche zurückwarf. Unter einem Haufen von Ziegelsteinen liegt die Leiche eine» Manne»; dte eine Hälfte de» Gesichts ist gräßlich von den umberirrenden Hunden angenagt. Und niemand, niemand kam hierher, um diese menschlich,» Reste sort- zutragen und in der Erde zur Ruhe zu legen. Es war wohl ein ärmliche» Viertel, vielleicht wohnten hier die Arbeiter, aber »wischen den Ruine» öffneten sich bisweilen kleine Höfe, in denen Orangen und Mandarinenbäume grünen. In einem dieser Höfe, in einer improvi- steilen Hüne, hockt eine Familie, die sich geweigert hat, die Slätte ihre» einstigen Besitzes zu Verlusten. Sie kommen uns entgegen und vielleicht doch aus den Ruinen irgendwo eine Stimme noch ant- wortet. Und plötzlich hören wir ein leises klägliche» Seufze». Ich kann nicht sagen, welches Gelühl mich überkommt, eine seltsame Ver- Mischung von Freude und Grauen. Wir rufen noch einmal, und au» dem Innern eines Häuschens tönt das Seufzen zurück. Wir öffnen die halbzcrtrümmerte Tür und dringen ein in ein übelriechendes schwarze» Loch, wo in einem Winkel die Formen eines Menschen sich bewegen. Unsere Fragen bleiben ohne Antwort, nur ein Seufzen und Gebete klingen zurück. Endlich erfahren wir einige». Er ist eine schwache Greisin; sie war nicht verschüttet: nur vergcffen. Ihr Mann war schwer verwundet, zwei Tage nach der Katastrophe retteten ihn Fremde, trugen ihn hinweg und vergaßen, die alte Frau abzuholen. Sie war am Fuß verletzt; seitdem lag sie da und seufzte und harrte auf Hülfe. Eine V rwandte hatte ihr etwa» Brot gebracht; aber auch sie war nicht wiedergekommen. Wir betrachten ihre Wunde: der Fuß ist völlig vereitert. .Warum riesen Sie nicht um Hülse?' .Ich ries und rief, aber niemand kam . . .' Wir holen Soldaten, man bettet die Alte auf einen Lehnstuhl, den wir in den Ruinen finden, und man bringt sie ins Hospital. Sie hat jetzt grgestrn und schläft; «Inen Tag länger, und in ihrer Hütte wäre sie ohne Hülse elend ge storben . . .* ^ * Die Familienmorde durch Geisteskranke sind in den letzten Jahren immer häufiger geworden. In einer bei Karl Mar hold, Halle a. S, kürzlich erschienenen Broschüre wird diese» Thema durch Medizinalrat Dr. P. N a e ck e in HubertuSburg unter Berücksichtigung der umfangreichen Literatur und der von ihm selbst beobachteten Fälle in erschöpfender Weise behandelt. Naecke unter scheidet einen .vollständigen' vom .unvollständigen' Familienmord. Der .vollkommene' Familienmord tritt dann ein, wenn der Täter alle anwesenden Familienmitglieder tötet oder einen MordversuchLauf dieselben macht, wobei er zuletzt mitunter Selbstmord begeht, unvoll kommen ist der Familienmord, wenn nur einzelne getötet werden mit . „ lUIViVf »Mfctlll »IM* Ull|l»ll« - ohne nachiolgenden Selbstmord des Täters, häufiger bei geistig Gesunden zu sein. oder Der erster« scheint ........ ... Der letztere kommt anscheinend öfter» bei Irren vor. Bei geisteskranken Männern und Frauen, die beide meist in der Blüte der Jahre stehen, fand der vollenbete Mord doppelt so oft statt al«, der Versuch dazu; bei den Männern sind in der Mehr- zahl dte Ehefrau, bei der ~ ' ..... Opfer. In" den unteren mord relativ viel häufiger ai» in den oberen/ Z: Attentat» wandten die Männer am häufigsten scharfe und Schlaginstrumente, seltener Schuß, und Stichwaffen an, hei den Frauen dagegen geschah die Tat mit dem Mestcr oder durch Er würgen. Sehr bemerkenswert ist es, daß die Familienattentäter prozentualiter erblich mehr belastet sind al» die übrigen Irren. Wa» die Art der geistigen Störung der Mörder anlangt, so finden sich der Häufigkeit nach bst Männern: der chronische AlkoholiSmu», die Paranoia (Verrücktheit), die Epilepsie (Fallsucht), bei den Frauen die Melancholie, dte Paranoia und die Dementia praecox (früh zeitige» Verblödungsirresein). Die Verhütung de» Famtlienmorde» Sllt, soweit e« sich um Irre handelt, mit der der Getste»krankheiten überhaupt zusammen. Dr. L. * Die große Hutnadel. Wir lesen hierüber in der Arbeit». Markt-Korrespondenz: Die Launen der Mode sind unergründlich. Im 'origen Jahre tauchte plötzlich aus dem Markte eine neue Form der Hutnadel auf, die nur durch die Größe ihre» Kopse» aufstrl. Aus dem großen Kopse befand sich ein Email- oder Zelluloidbild. Der Kauf mann, der in Gablonz diese Nadeln zuerst Herstellen ließ und sie dann zu lehr gewinnbringendem Preise auf den Markt warf, hat dank dem Geschmack«, den die Damenwelt an den unförmlich großen Naßkln »ahm, ein gute» Geschäft gemacht. 2—3 M kostete erst die schicke Hutnadel. Aber kaum wurden die interessierten Kreist gewabr, das tiefer sank. Die Gablonzer Bijoulesiewaren &gt; Industrie bekam infolge der starken Nachfrage nach der großen Hutnadel monatelang recht ansehnliche Aufträge, und auch noch jetzt sind manche Betriebe mit der Heistellung der großen Hutnadel beschäftigt, obwohl die Mode schon längst ihren Höhepunkt über schritten bat. ES ist kaum glaublich, wie plötzlich dte Laune ver Mode Arbeitsgelegenheit bringen, aber auch schnell wieder entzsehe» kann. Immerhin überwiegt doch die Steigerung der Arbeitsgelegenheit. Auch, da» kann man au» der Entwicklung dir Hutnadel ersehen. Gab es z. B. vor 10 Jahren bei uns in Deutschland schon eine wechselnde Mode der Hutnadel? Wie einfach waren diese Stadeln damals mit ihren runden schwarzen Köpfen! Und wie ist inzwischen auch tote Hutnadel zu einem Modeartikel geworden, für den die Krauen aller B.völkerungischichtcn Sinn und Int,reffe haben. Kaum ist eine Mode durchgcdrungen, so ist sie auch schon wieder abgetan, und eine neue Laune schwingt das Zepter. An sich ist dieser W:chsel gewiß wenig erfreulich, aber er bringt ArbeilSgclegenhcit und bet der Ent. Wicklung der Ansprüche auch steigende A.betiSgel,muhest. Die billige Hutnadel, die jahrelang vorhiekt, sie ist verdrängt von der Hut nadel, die kaum «ine Saison überdauert, aber dasür teurer ist und zu ihrer Herstellung mehr Arbeitskraft benötigt. Kunst, Wissenschaft und Literatur. Max Klinger in der Sezession. Vor diesem eben vollendeten Monument KlingerS, da» Johannes BrabmS' Gedächtnis fortan in der Muflkhalle zu Hamburg ehren soll, würde Altmeister Menzel nicht so bewundernd stehen wie einst vor der Kolostalstatue de» thronenden Beethoven, deren starke geschloffene Wirkung er ungeteilt anerkannte; denn trotz aller feinsinnigen Einzel, betten, dte der gedankenreichen Skulptur eignen, ist von rechter monumentaler Plastik in diesem Brahms-Denkmal wenig zu spüren. Die Beet flistung durch Rodln, testen Stärke ja auch nicht tn der monoumentalen Wirkung liegt, ist in vielen Arbeiten KlingerS un verkennbar, vor allem gilt da» für seine Auslastung de» PortraitS — wie z. B. hier die geniale Skizze von Peos. Wundt» geistvollem Kopf. Die Meisterwerke, welche Klinger tn den Einzelgesialten der Kastandra und Salome aus dem Marmor meißelte, hrbe» eigne» intensives Leben, welches ihres Schöpfers geniale Vielseitigkeit in bellstem Lichte zeigt. Der grübelnde Denker hat in jenen Halbfiguren Frauen typen geschaffen, die Verkörperungen eine« idealen Realismus sind, wie sie nur wenigen unserer zeitgenössischen Bildhauer» gelangen. Dte Aufgabe, Denkmäler zu bilden, fand den Künstler bisher weniger gerüstet. Und auch hier wieder, bei diesem Brahms, sind die großen Grundgedanken, die Klinger vorschwebie». eben nur sestelnde malerische Ideen geblieben. Diese vier Gestalten, welche den Tondichter umdrängen, tdn scheinbar inspirieren, ihm huldigen, seine Gaben genießen, sich rief in sie versenken, sind feinsinnig charakterisiert — aber ihre Körperlichkeit blldet Konruren, die jede grandiose ruhige Denkmalswtrkung au», schfteßen. AuS Gesprächen mit dem früh geschiedenen Viktor Tilgner weiß ich, wie sehe sich dieser begabte österreichische Bildhauer rnit der» Aufbau seine« Mozart-Denkmals quälte, wie er mehrfach versuchte, in genialen Ski-zen die wunderbare Vielseitigkeit drS großen Wolf gang Amadeus zur Erscheinung zu bringen. Eine dieser Skizzen gab den schlanken Komponisten dirigierend wieder, und unter ihm stieg eine enorme Tonwelle auf, deren einzelne Biegungen und Wölbungen Putten und Genien waren, die in Haltung und Ausdruck Mozarts musikalisches Schaffen tn all seiner Vielseitig keit widerlpiegelten. Tilgner kritisierte sein Werk scharf: »Ja, wann ih'S malen könnt, da feit sie nir, ober lo — nein'. Und widerlpiegelten. ih'S malen könnt, da fett sie nix, er zerstört« das mühsam Erdachte — Plastisch Unmögliche, von neuem. Daß der Phantasie deS Bildhauer» anveie Grenzen gezogen sind wie dem Maler, das weiß der kluge May Klinger seit lange, aber er läßt die Beschränkung, wie es scheint, nicht gelten, er meint, daß sein Genius auch die» schwierige Ziel erreichen könne, und — so wurde sein BrahmSD-nkmal für Hamburg eine geniale Arbeit voll einzelner seelischer Schönheiten und nicht zu leugnender künstlerischer Oualt- tätcn, aber kein ausgeglichenes plastische» Werk, das den Beschauer in seinen Bann schlägt, ihn zum Folger» und Weiterdenkcn zwingt. DaS Haupt des Tondichters BrahmS ist von sprechender Lebenswahr- heit, der ihm innewohnende monumentale Zug ist so natürlich, so ungewollt und dabet ähnlich und schlicht, daß alle Freunde von Johannes BrabmS von dieser verklärenden und dabet doch wahren Äusfaffung in hohem Grade angemutet sein werden. Aber der merk würdige Mantel oder das Laken, t» welches der Bildhauer — verlegen um eine andere Lösung — seinen Helden hüllt, ist alle» andere als ungesucht und natürlich; die Art. wie BrahmS Arme und Hände ver schränkt, und vor allem die Weise, wie der Genius neben ihm auf de» Künstlers Rücken lehnt — um nichts Schlimmere» zu sage» — ist wenig geschmackvoll. Jedoch, wenn Kllnger dasür sorgt, daß da» Denkmal in Zukunft nur von vorn gesehen wird — hier ordnete er selbst die Aufstellung ander» an —, dann wird der Eindruck de» Ganzen vielleicht ein künstlerisch stärkerer fein, die Unzulänglichkeit der Komposition wird dann hinter dem Gedankenreichtum, hinter der musikalbchen Stimmung dieser ernst blickenden Vielzahl, die BrabmS auf seinem Höhenflug geleitet, mehr als jetzt hier verschwinden Äon den übrigen Skulpturen dieser sehr interestanten Kltnger-AuSstellung ist vor allem die neue große Bro- ze Der Athlet zu nennen; wie der Künstler hier da» Spiel der Muskeln, die sehnigen Gliedmaßen, die kühnen Ueberschneidungen treu der Natur nachgebildet, das ist bewunderSwert. Und seine Portraitbüsten: neben der des schon erwähnten Prof. Wundt tn zwei Auffaffungen, die von Georg Brande» und Prof Lamprecht, beweisen von neuen, daß hier ein Bildhauer am Werk war, dessen Meisterschaft nicht In technischer Fertigkeit, sondern tn seelischer Vertiefung besteht. DaS Grlffelwerk Kiinger» — onus I bi» XII —, welches tm Verlag von AmSler u. Rutoardt erschien, ist fast vollständig hier. E» muß rühmend betont werden, daß die kunstsinnige» Besitzer der altbewährten Berliner Firma zu einer Zeit an die Herausgabe der ersten Folgen gingen, al» der Künstler noch wenig Verständnis und vor allem nicht die ungeteilte Wertschätzung der Slädte seines Vater landes Dresden und Leipzig, sowie anderer Kanstzentren gefunden hatte. Klinger selbst hat die Aufstellung seiner Radierungen über- wacht, e» ist eine bequeme Art, diese gedankenreichen Blätter zu be- trachten, deren einzelne immer von neuem durch ihre wunderbare Schönheit — den Reichtum der Ideen und die technisch vollendete Linienführung — überraschen, so oft auch schon da« Auge auf ihnen weilte. Daß opus V Amor und Psyche besonder» jugendfrisch an- mutet, braucht kaum nochmals gesagt zu werden. Neu werden den meisten die sein gezeichneten Umrahmungen zu den 16 Blättern der Epithalamia sein, und auch unter den Einzelschöpfungen finden sich viele, die, selten ausgestellt, dazu dienen, das reiche Schaffensbild Klinger« noch bedeutsamer und eindrucksvoller zu gestalten. Das Antlitz feine» Freundes Felix Koenig», der im Sommer 1800 in Paris starb, als der Künstler mit seinem Beethoven stark in dir Seinestadt beschäftigt war, ist von Klinger aus dem Totenbett mit wunderbarem F-insinn tn Schabkunstmanier porträtiert worden; die geistvollen Adressen für Menzel, Leuckart und Maercker, virschiedene Exlibris, sowie Radierungen nach Böckltnschrn Land- schäften gehören mit zu dem Bestand dieser ausgezeichneten Klinger. Ausstellung, die bi» zum 1b. Februar dauert, und deren Ertrag dann Studienzwecken de» Deutschen KünstlerbundeS, speziell der Villa Romana in Floren», zu gute kommt. ______ PI. Vellmar. G. K. Eine Wohnstätte de» Urmenschen aus Java. Auf der Suche nach dem Urmenschen aus Java, da» gerade in den letzten Jahren wieder von mehreren Anthropologen zur Ent scheidung her Frage, ob der Pithecanthropu» wirklich daS gesuchte Zwischenglied zwischen dem Menschen und Affen ist, ausgesucht wurde, hat auch Dr. Johanne» SIbert «ine Expedition unternommen, in deren Verlauf er verschiedene Kulturstätten vom Urmenschen entdeckte. Wie er selbst im neuesten Heft der von Dr. I. H. Bechhold herau». gegebenen Umschau berichtet, ist er durch die Beobachtung der ihrem Alter nach genau bestimmbaren GesteinSlagerungen zu dem Ergebnis gelangt, daß der Pithecanthropu» in der ersten Hälfte der Diluvial- Periode, also zusammen mit dem Urmenschen gelebt hat, und diese Feststellung war für ihn die Veranlassung, nach unzweifelhaften Spuren vom Urmenschen zu suchen. Dabei unterstützte ihn die Tat- i ache, daß die Sagen von Riesen und Affenmenschen, an denen bet avanische Mythus sehr reich ist, unmittelbar an die Fundstellen er großen Säugetierknochen anknüpsten. Durch die Mitteilung dieser Sagen von Eingeborenen hat er verschiedene Knochenfund, stellen entdeckt, und die Sage von der Burg Redjuno, die der Gott gegen die räuberischen Einfälle der Riesen errichten ließ, war e» im wesentlichen, die ihn die Kulturstätte vom Urmenschen bet Teguan unfern von Redjuno in Mitteljava entdecken ließ, von der er nun ein« ausführliche Schilderung entwirft. Diese Kulturstätte stellt eine Ibt Meter lange, 7—8 Meter breite uud za. 1t Meier dicke, schwarze, au» Kte» und Sand bestehende Erdlag« dar. Sie ist mit Knochen aller Art, vom Büffel, Banteng, Schwein, Hirsch, Raub- tieren, Schildkröten u. a. angefüllt, «ährend Elcfantenreste, mit Au», nähme von einigen Zahnstücken, nur tn benachbarten Partteen vor. kommen. Daß e» sich hier um Ucberreste von menschlichen Mahlzeiten handelt, ergibt sich daraus, daß die hohlen Markröhrenknochen künstlich ausgeschlagen sind, und ihre Bruchflächen sind alt. Manche Stücke »eigen d-utlich die Spuren der Einwirkung dr» Feuer». E» wurde denn auch, wa» da» Bemerkenswerteste bei diesem Funde war, ein dreiteiliger Feuerherd au» Ton gefunden. Er ist 125 Zentim. lang und za. 20 Zentim. hoch, wobei die Innenseite der drei Feuerlöcher etwa 2b Zentim. mißt. Seine vier Querwände sind durch eine gemeinsame Hinterwand untereinander verbunden. Au» demwittlerenFeuerlochewurden einige Topf'cherben, eine 6t Zentimeter lange tönerne Walze, gleichmäßig abgearbeitet und an einem Ende wie mit einem Messer abgeschnitten, und eine kleine dreieckige Lanzenspitze (oder vielleicht ein Bohrer) hervorgeholt. An verschiedenen Stellen der unteren Erdlage saßen zahlreiche Kugeln von der Größe einer kräftigen Minnersaust, dte wahrscheinlich al» Mahlsteine oder al» ein andere» Werkzeug gedient haben mögen. Bei« weiteren Abaroben kam noch ein zweiter, doch schlecht erhaltener Feuerherd zum Vorschein. Die prähistorische Küche muß in die Sandschichten, auf denen der Urmensch am Solefiuffe lebte, hineingegraben sein; der graue Sand ist infolge der Einwirkung des F-uer» an mehreren Stelle» rot gebrannt. Diese prähistorischen Feuerstkllen sind den noch beute auf Java üblichen Feuerungen ähnlich. Der Javaner stellt drei Steine tm Dreieck zusammen und schürt mit Baumästen, oder er baut auch einen Oien a»S Ziegelsteinen mit zwei oder mehreren Feuerlöchern. Der Fund von Redjuno stellt bereit» einen hoben Kulturzustand dar und entspricht hierin ungefähr den jüngere» Steinzeitiunden Europas, ist jedoch von viel höherem Alter, und »war mitteldiluvial, — eine Annahme, die Dr. Elbert auch durch eine Reihe weiterer Beobachtungen, besonders durch Funde an fossilen Pflanzen, zu beweisen sucht. Theater uud Musik. R. F. Im nachmittag die 140 Ja Josef Haydn aufgeführt. Deutschen Theater wurde am Dienstag hre alte Oper DerApothekervvn ^ ...eführt. Auf dem Schlöffe Esterhaz, wo er Fürstlicher Kapellmeister war, brachte er fie 1768 zur ersten Darstellung. Zwei Jahre später gab man sie öffentlich in Wien, seitdem bi« jetzt nirgends mehr. Ueber die Wiener Aufführung berichtete damals das „Wiener Diarium": „Als eine besonders angenehme Nachricht hat man hier nicht un- angemerkt lasten wollen, daß jüngst abqcwichenen Mittwochs den 22. dieses in der Behausung des (Till.) Herrn Barons v. Sumerau nächst Mariahilf ein von dem Fürstlich Ester- haznschen Kapellmeister Herrn Josef Hayden in die Musik gesetztes Singspiel, Der Apotheker genannt, von den sämtlichen Fürst Estcrhazyschen Kammer virtuosen aufgeführt und den darauf gefolgten Donners tag auf Hohes Begehren in Gestalt einer musikalischen Akademie und im Beysein vieler hoher Herrschaften mit ganz besonderem Beyfall wiederholt worden, eine Sache, die gedachten Herrn Kapellmeister Hayden, dessen große Talente allen Musik« nebhabern zu Genüge bekannt find, wie nicht minder den obgedachtcn sämtlichen Virtuosen zur vorzüglichen Ehre gereichet." — Dr. Robert Hichhfeld in Wien hat die Oper aus dem Italienischen übertragen, ihre drei Akte in einen zusammen- gezogcn und das allzu Naive und Redselige im Texte zu mildern versucht. An der Musik hat er nur stellenweise und ganz zart etwas geändert. Der Stoff ist der alte, in gar vielen Formen in der italienischen Buffooper verarbeitete. Im Barbier, im Don PaSquaie, ja in veredelter Art sogar in den Meistersingern sehen wir ihn noch lebendig auf unserer Bühne. Ein schelmisches Mädel spottet der Bewerbung eines verliebten Alten — „Könnt'S einem Witwer nicht gelingen?" sagt das schlaue Evchcn — und läßt sich vom jungen Schatz heim- sühren. Die komischen Opern bleiben länger jung als die tragischen. Man denke nur an DonizettiS Lucrezia oder Lucia neben dem Don Pasquale oder Der RegimcntStochter, an Rossini« Othello neben dem Barbier! Sollen Trauer und Schmerz zum Ausdruck gebracht werden, so verlangen sie ein besonderes Kostüm, eine Zeremonie, eine Formel — und das alles unterliegt der wechselnden Mode der Zeit. Freude und Scherz aber äußern sich zwanglos und frei von jeder Formel zu allen Zeiten gleich. Daher wird die tragische Oper schnell alt, während die koiuische frisch bleibt. — In Haydns Apotheker möchte der alte Sempronio gern sein Mündel Grilclta zum Weibe. Auch der reiche Geck Volpino stellt ihr nach. Und dabei gibt eg die üblichen Verkleidungen, falsche Notare, täuschende Ehekontrakte usw. Aber der geliebte Apothckergehülfe Mengone bekommt das Mädchen doch. Man hatte früher mehr Zeit, und daher war Redseligkeit allen eigen. Waö uns in einem Akte schon breit genug ausgeführt erscheint, das ließ man sich einst in aller Behaglichkeit in dreien Vorspielen. Der Eindruck, den die Aufführung der wesentlich gekürzten Oper am Dienstag machte, war ein durchaus er freulicher. Die Musik Vater Haydns ist in ihrer Schlichtheit, die von jeder Seichtheit fern bleibt, wirklich anheimelnd. Die Secco-Nezitative erscheinen flüssig und gut deklamiert, die Arien sind melodio« und oft herzig. Das Orchester — Streichquartett und einige Bläser — stellt nicht die Opcrn- gitarre der älteren Italiener dar, sondern ist hübsch auS- gestaltet und umspielt die Singstimmen anmutig. Es kommt in der Musik sogar zum Charakterisieren, so im Ouartct« der Advokatenszene und im Chor der Türken. Dieser niedlichen opera baffa sollten sich unsere Bühnen annchmen. Es würde sich gewiß lohnen. So gäbe sie z. B. ein paffendes Füllstück zu O. Blechs Versiegelt und bedürfte dazu nur noch einer Erweiterung des Orchesters. Wenn fie dann die Bajazzi verdrängen könnte, sollte cs uns doppelt freuen, sie auf der Bühne neu erstehen zu sehen. — Die Aufführung war, als eine im Rahmen der Wohltätigkeits- und Geleaenheits- aufsühruna erscheinende, recht anerkennenswert. Das Werkchen erschien sicher einstudiert und kam hübsch heraus. Herr Sistermans spielte und sang die Rolle des alten Apothekers mit Humor, Herr Becker war ein ganz achtbarer Vertreter des Mengone, Fräulein Hildegard Hummel eine reizende, stimm- und talentbegabte Darstellerin des Gecken Volpino. Frau Heymann-Engel (Griletta) ist ja als kunstgebildete Sängerrn bekannt. Sie hat sich um dte Er weckung der liebenswürdigen alten Oper sowie um deren gelungene Wiedergabe wohlverdient gemalt. R. F. Die Gesellsch'aft der Musikfreunde S ab am Montag im Saale der Philharmonie unter em Protektorate Ihrer Durchlaucht der Prinzessin Wilhelm zu Wied ein Konzert zum Besten der durch das Erdbeben m Sizilien in Not geratenen Familien. Dirigent war Oskar Fried, Ausführendc das Philharmonische Orchester und die Königliche Sängerin Frieda Hempel. — Die erste Nummer war die 3. Symphonie des Russen A. Scriabine, der eigentlich Skrjabin heißt. Sie nennt sich I-e Divin Poeme. Aber um sich und den Hörer in höhere Regionen erheben zu können, haftet ihr zu viel Blei an. Sie »st dick, und gleichförmig und - gleichfarbig und unklar. Und da« ist um so nachteiliger für die Wirkung des Werkes, als es ohne Pause fast eine Stunde lang spielt. Wer nur eine Minute nach Beginn der Musik kam, mußte draußen stehen bleiben, bis die Symphonie zu Ende war. Das hätte nicht fein sollen. Man brauchte das Stück nicht an den Anfang zu stellen oder mußte seine Dauer auf dem Programm angeben. Die so lange Ausgesperrten wurden nicht einmal für ihr Warten entschädigt, denn sie hörten nur noch ein paar von Fräulein Hempel allerdings gewandt gesungene Lieder und dann das ziemlich matt geratene Meistersinger-Vorspiel. — An derselben Stelle fand am Abend darauf unter dem Protektorate Sr. Königlichen Hoheit des Kronprinzen eine Aufführung für denselben hochherzigen 8 weck statt. Frau AlmaRenier, ln Trauergewand ge- eidet, sprach einen Prolog von R. Boß recht eindringlich. Der Chor sang zunächst ein Requiem von Hebbel, das von O. v. Chelius für acht Stimmen komponiert ist. Das ist gute Musik. Orchester und Singstimmen find kunstgereckt und ge schickt behandelt, so daß da» Werk von bester Wirkung war. Frau Schumann-Leink sang Lieder von Raff (Sei still) und Schubert (Die Allmacht) in prächtiger Weise, und dann folgte das Brahms-Requiem, vortrefflich vom Phil harmonischen Chore und den Solisten Frau Herzog und Herrn van E w e y k gesungen. — Dem edlen Zwecke floß durch das Konzert ein namhafter Beitrag zu, denn alle Plätze der Philharmonie waren besetz! -y- Im Operettentheater SW. (Bellc-Alliance- Theater) fand am Dienstag die erste Aufführung eine» neuen dreiaktigen Liederspiel» von Adolphe</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;article&gt;Drei Wochen nach der Katastrophe. Sin anschauliche» Bild von dem heurigen Siand der Dinge in dem unglücklichen Messina gibt der Korrespondent des Corriere dclla sera, Guelsu CIvinini, der jetzt »ach dreiwöchigem Aufenthalt an der Stätte der Katastrophe Sizilien wieder verläßt. Er hat am Sonnabend einen letzten Gang durch die zerstörte Stadt unternommen und ist dabei in der Oberstadt in Gegenden gekommen, wo noch heute, zwanzig Tage nach dem furchtbaren Unglück, die Rcttungöaibetten nicht begonnen haben, wo unter oem Schutte die in Verwesung übergegangcnen L-ich-nreste noch emporragen. Am Morgen noch hatte man unter den Dtuinen vier lebende Opfer des ErdbihcnS gefunden und geborgen, virr Tage nachdem alle AufräumungSarbetten von den Behörden untersagt worben waren. .ES mag eine zweifelhafte Frmde für die qrwescn sein, die so frühzetltg die Trümmer gewisiermaßen unter Siegel gelegt hatten. Seit Montag ist keine Ausgrabung, keine Nachforschung und keine Aufräumung mehr unternommen worden, man wollte alle Erlaubnisse zu Ausgrabungen verweigern und begründete da» mit de» juristischen Schwierigkeiten und mit den Verwirrungen, die damit über das Pnoateigenrum heretnbrechrn könnten. Unten am User biwakierten tausend Soldaten und Matrosen, die dazu hätten ver wendet werde» können, unter den Ruinen weiteizuiorschen, ob noch lebende W-Icn gerettet werden könnten. Aber es geschah nichts. Eine wirkliche umfasiende methodische Durchforschung der Ruinen hat über haupt nie stattgefunden. Zn den ersten Tagen grub man nur nach den Kast-nschränken und den Registern. Manchmal gelang es dabet, auch einen Menschen dem Grabe zu entreißen; jetzt mit dem neuen Verbot Ist auch diese Rettungsmöglichkeit noch geschwunden. Die Ruinen waren verlassen, und nur hin und wieder zog eine Patrouille duich di« Trümmer, mit dem Aufträge, die Katzen zu erschießen und Ep tzbuben Icstzunehmen. Und wählend besten gruben unter Trümmern verzweiielte Menschen umher, die nicht sterben wollte», zwanzig Tage lang, und denen niemand Hülfe b,achte. Wer mag es ahnen, wie viele grauenhafte Tragödien sich unter den Trümmirn Messina» im Dunkeln und »»gehört vollendet haben. Heute unternahm einen neuen Gang durch r, wo an den . Illinois noch emsig im Schutt graben, um d:e Leiche ihres Konsul» und seiner Frau zu bergen. Je weiter wie vordrangen, je mehr verminderten sich die Zeichen, die die RettungStruppo aus ihrem Wege zurückaelaffen hatten, und schließlich erreichten wir einen Teil des TrüwmcifeldeS, wo alle Spuren aushörlen. Ein dumpfe» Schweigen lagert über der Stätte. In den eingefallenen Häuiern stehen die Türen osten, man lebt noch geöffnete Schränke und Kommoden, dte von ästiger Flucht erzählen, und dann stoßen wir auch auf dte ersten Leichen. Im Schutt liegen sie hier, seit zwanzig Tagen, unter Sonne und Regen. Sie sind da» Zeichen, daß hierher keine Reiter sich verinten. Von irgend einem Gegenstand, der wohl ein Steohsack ist, hängen unter weißen Mörtclstücken die schwarzen Haare einer Frau herunter. Wir nähern uns, räumen den Schutt beiseite und beben die Decken. ES ist ein junges Mädchen, im Bett zusammengekrümmt ist sie gestorben, mit den Armen angst voll den Kopf sich schützend. Entsetzen liegt noch in den Zügen, und der surchtverzerrie Mund scheint den letzten Verzweiflungsschrei noch zurückzuhaiten. Sie hat keinerlei Wunden; vielleichl ist sie erstickt. Wir geben weiter, und in jedem Hause sehen wir Leichen, halbverschüttet vom Mauerwcrt, überall liegen sie umher. Bisweilen ragt et» Fuß oder ein Arm aus dem Schutte; man hat den Eindruck eine» Kirchhofes, der durch eine furchtbare Erd- erschülterung zerstört wurde und seinen Inhalt wahllos auf die E-doberfläche zurückwarf. Unter einem Haufen von Ziegelsteinen liegt die Leiche eine» Manne»; dte eine Hälfte de» Gesichts ist gräßlich von den umberirrenden Hunden angenagt. Und niemand, niemand kam hierher, um diese menschlich,» Reste sort- zutragen und in der Erde zur Ruhe zu legen. Es war wohl ein ärmliche» Viertel, vielleicht wohnten hier die Arbeiter, aber »wischen den Ruine» öffneten sich bisweilen kleine Höfe, in denen Orangen und Mandarinenbäume grünen. In einem dieser Höfe, in einer improvi- steilen Hüne, hockt eine Familie, die sich geweigert hat, die Slätte ihre» einstigen Besitzes zu Verlusten. Sie kommen uns entgegen und vielleicht doch aus den Ruinen irgendwo eine Stimme noch ant- wortet. Und plötzlich hören wir ein leises klägliche» Seufze». Ich kann nicht sagen, welches Gelühl mich überkommt, eine seltsame Ver- Mischung von Freude und Grauen. Wir rufen noch einmal, und au» dem Innern eines Häuschens tönt das Seufzen zurück. Wir öffnen die halbzcrtrümmerte Tür und dringen ein in ein übelriechendes schwarze» Loch, wo in einem Winkel die Formen eines Menschen sich bewegen. Unsere Fragen bleiben ohne Antwort, nur ein Seufzen und Gebete klingen zurück. Endlich erfahren wir einige». Er ist eine schwache Greisin; sie war nicht verschüttet: nur vergcffen. Ihr Mann war schwer verwundet, zwei Tage nach der Katastrophe retteten ihn Fremde, trugen ihn hinweg und vergaßen, die alte Frau abzuholen. Sie war am Fuß verletzt; seitdem lag sie da und seufzte und harrte auf Hülfe. Eine V rwandte hatte ihr etwa» Brot gebracht; aber auch sie war nicht wiedergekommen. Wir betrachten ihre Wunde: der Fuß ist völlig vereitert. .Warum riesen Sie nicht um Hülse?' .Ich ries und rief, aber niemand kam . . .' Wir holen Soldaten, man bettet die Alte auf einen Lehnstuhl, den wir in den Ruinen finden, und man bringt sie ins Hospital. Sie hat jetzt grgestrn und schläft; «Inen Tag länger, und in ihrer Hütte wäre sie ohne Hülse elend ge storben&lt;/article&gt; </t>
-  </si>
-  <si>
     <t>&lt;argument&gt;Am Morgen noch hatte man unter den Dtuinen vier lebende Opfer des ErdbihcnS gefunden und geborgen, virr Tage nachdem alle AufräumungSarbetten von den Behörden untersagt worben waren. .ES mag eine zweifelhafte Frmde für die qrwescn sein, die so frühzetltg die Trümmer gewisiermaßen unter Siegel gelegt hatten. Seit Montag ist keine Ausgrabung, keine Nachforschung und keine Aufräumung mehr unternommen worden, man wollte alle Erlaubnisse zu Ausgrabungen verweigern und begründete da» mit de» juristischen Schwierigkeiten und mit den Verwirrungen, die damit über das Pnoateigenrum heretnbrechrn könnten. Unten am User biwakierten tausend Soldaten und Matrosen, die dazu hätten ver wendet werde» können, unter den Ruinen weiteizuiorschen, ob noch lebende W-Icn gerettet werden könnten. Aber es geschah nichts. Eine wirkliche umfasiende methodische Durchforschung der Ruinen hat über haupt nie stattgefunden. Zn den ersten Tagen grub man nur nach den Kast-nschränken und den Registern. Manchmal gelang es dabet, auch einen Menschen dem Grabe zu entreißen; jetzt mit dem neuen Verbot Ist auch diese Rettungsmöglichkeit noch geschwunden. Die Ruinen waren verlassen, und nur hin und wieder zog eine Patrouille duich di« Trümmer, mit dem Aufträge, die Katzen zu erschießen und Ep tzbuben Icstzunehmen. Und wählend besten gruben unter Trümmern verzweiielte Menschen umher, die nicht sterben wollte», zwanzig Tage lang, und denen niemand Hülfe b,achte. Wer mag es ahnen, wie viele grauenhafte Tragödien sich unter den Trümmirn Messina» im Dunkeln und »»gehört vollendet haben. Heute unternahm einen neuen Gang durch r, wo an den . Illinois noch emsig im Schutt graben, um d:e Leiche ihres Konsul» und seiner Frau zu bergen. Und niemand, niemand kam hierher, um diese menschlich,» Reste sort- zutragen und in der Erde zur Ruhe zu legen.&lt;/argument&gt;
 &lt;claim&gt;The authorities' ban on excavation work prevented rescue efforts and led to unnecessary deaths.&lt;/claim&gt;
 &lt;explanation&gt;The argument explicitly states that living victims were found after authorities banned excavation work, that available soldiers could have been used for rescue but weren't, and that desperate people were left to die for twenty days without help. The text directly criticizes the authorities' decision to halt rescue operations.&lt;/explanation&gt;
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;article&gt;THE GREAT EARTHQUAKE. QUEEN OF ITALY INJURED. BRITISH AND AMERICANS SAFE. Rome, January 3. Memorial services were held in every church in Rome today for the victims of the earthquake. High Mass was celebrated at St. Peter’s by Mgr. Ceppe- telli, Patriarch of Constantinople, assisted by Car dinal Rampolla. Collections were made in aid of earthquake sufferers, and stands have been erected on the streets as collecting stations. Flags are still waving at half-mast. It has been remarked that °r Year ’ s Da y King Victor Emmanuel, instead of being in the Throne Room on the Quirinal Hill, stood on a much* higher Throne, wherefrom his figure, dignified by the nobility of his deeds, ap pealed not to Italians only, but to the entire world. It must be pointed out that the King did not go to Messina and Reggio for formality, but for. earnest work. Reports from those places say that he was indefatigable and showed wonderful activity, leaving no point of the fallen town unvisited, super vising the work, giving advice, infusing energy and courage, and, indeed, electrifying the atmosphere. On some occasions tottering walls, remains of high buildings, fell at his feet; on others he was sur rounded by bleeding and injured victims, who, as though resuscitated on seeing him, shouted enthusi astically, “Having the King we have all.” It may be safely said that no one in Italy envies the King so much as the Pope, who has always felt his place was down there. Great Britain is especially distinguishing herself, not only through the admirable work of her magni ficent bluejackets in the land of the dead, but also in pecuniary assistance. It is asserted that a party of 20 English-speaking persons shortly after the ■earthquake escaped from Messina to Palermo, cross ing unharmed the large tract of country beyond Messina where the upheaval had destroyed the rail way. Miss Evelyn Peirce, interviewed, said the death of her cousin, Mr. Joseph Peirce, the American Vice- Consul at Messina, was most cruel. ; He was the first to realise that the terrible shaking which had awakened him was an earthquake, and urged his wife to take the smaller children and escape, while he rushed to the room where the elder children slept to rouse them. While he was so doing a tidal wave completed the work of the earthquake; the totter ing walls, from which the furniture had already been thrown in different directions, collapsed, and the whole party, including four children, was buried dead under the three floors of the house. Signor Orlando, Minister of Justice, has sent the following telegram to Signor Giolitti, the Premier, dated Messina:—“Queen Elena is still working de votedly at the hospital. A panic occurred in the hospital yesterday evening in consequence of an other slight earthquake shock, and the Queen, in trying to prevent a stampede, was slightly hurt. Rome, January 3. The Central News correspondent had an interview this morning with Mr. Oswald Thomas, an English survivor of the Messina disaster. He said, “So far as I know there were about 40 English people in Messina, and the majority of them are safe. I had been there for ten months. I had a marvellous es cape from death, for the ceiling of my room fell on me, and the walls were opening all about me My face, as you see, was badly cut. On the op- s id j: „ of the way I saw a palace collapse. With the fall of my house I had been left suspend ed high up, and after a few minutes I dropped down on some beams and made my way to the street. I found the slippers of the concierge, which I put on my feet, and after three tiring hours I reached the harbour, where the British steamer “Drake” was then lying. In company with some of the “Drake’s” crew I went in search of Mr. Bennett (?). At the Consulate we found him with his leg broken, holding a child in his arms. Every thing about him was in ruins, and we had to rescue the two with ropes under the greatest difficulties Mr. Bennett begged us to go and look for his wife On the following day we found a woman’s body and took it to Palermo, but Mr. Bennett said the °orpse was that of one of his servants.” Mr. (Continued on page 3.)&lt;/article&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;article&gt;Drei Wochen nach der Katastrophe. Ein anschauliches Bild von dem heurigen Stand der Dinge in dem unglücklichen Messina gibt der Korrespondent des Corriere della sera, Guglielmo Civinini, der jetzt nach dreiwöchigem Aufenthalt an der Stätte der Katastrophe Sizilien wieder verläßt. Er hat am Sonnabend einen letzten Gang durch die zerstörte Stadt unternommen und ist dabei in der Oberstadt in Gegenden gekommen, wo noch heute, zwanzig Tage nach dem furchtbaren Unglück, die Rettungsarbeiten nicht begonnen haben, wo unter dem Schutte die in Verwesung übergegangenen Leichenreste noch emporragen. Am Morgen noch hatte man unter den Ruinen vier lebende Opfer des Erdbebens gefunden und geborgen, vier Tage nachdem alle Aufräumungsarbeiten von den Behörden untersagt worden waren. Es mag eine zweifelhafte Freude für die gewesen sein, die so frühzeitig die Trümmer gewissermaßen unter Siegel gelegt hatten. Seit Montag ist keine Ausgrabung, keine Nachforschung und keine Aufräumung mehr unternommen worden, man wollte alle Erlaubnisse zu Ausgrabungen verweigern und begründete das mit den juristischen Schwierigkeiten und mit den Verwirrungen, die damit über das Privateigentum hereinbrechen könnten. Unten am Ufer biwakierten tausend Soldaten und Matrosen, die dazu hätten verwendet werden können, unter den Ruinen weiterzuforschen, ob noch lebende Wesen gerettet werden könnten. Aber es geschah nichts. Eine wirkliche umfassende methodische Durchforschung der Ruinen hat überhaupt nie stattgefunden. In den ersten Tagen grub man nur nach den Kassenschränken und den Registern. Manchmal gelang es dabei, auch einen Menschen dem Grabe zu entreißen; jetzt mit dem neuen Verbot ist auch diese Rettungsmöglichkeit noch geschwunden. Die Ruinen waren verlassen, und nur hin und wieder zog eine Patrouille durch die Trümmer, mit dem Auftrage, die Katzen zu erschießen und Spitzbuben festzunehmen. Und während dessen gruben unter Trümmern verzweifelte Menschen umher, die nicht sterben wollten, zwanzig Tage lang, und denen niemand Hilfe brachte. Wer mag es ahnen, wie viele grauenhafte Tragödien sich unter den Trümmern Messinas im Dunkeln und ungehört vollendet haben. Heute unternahm einen neuen Gang durch die Stadt, wo an den Ruinen noch emsig im Schutt graben, um die Leiche ihres Konsuls und seiner Frau zu bergen. Je weiter wir vordrangen, je mehr verminderten sich die Zeichen, die die Rettungstrupps auf ihrem Wege zurückgelassen hatten, und schließlich erreichten wir einen Teil des Trümmerfeldes, wo alle Spuren aufhörten. Ein dumpfes Schweigen lagert über der Stätte. In den eingefallenen Häusern stehen die Türen offen, man sieht noch geöffnete Schränke und Kommoden, die von hastiger Flucht erzählen, und dann stoßen wir auch auf die ersten Leichen. Im Schutt liegen sie hier, seit zwanzig Tagen, unter Sonne und Regen. Sie sind das Zeichen, daß hierher keine Retter sich verirrten. Von irgendeinem Gegenstand, der wohl ein Strohsack ist, hängen unter weißen Mörtelstücken die schwarzen Haare einer Frau herunter. Wir nähern uns, räumen den Schutt beiseite und heben die Decken. Es ist ein junges Mädchen, im Bett zusammengekrümmt ist sie gestorben, mit den Armen angstvoll den Kopf sich schützend. Entsetzen liegt noch in den Zügen, und der furchtverzerrte Mund scheint den letzten Verzweiflungsschrei noch zurückzuhalten. Sie hat keinerlei Wunden; vielleicht ist sie erstickt. Wir gehen weiter, und in jedem Hause sehen wir Leichen, halbverschüttet vom Mauerwerk, überall liegen sie umher. &lt;/article&gt; </t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C0781-C104-46FF-8C00-3D3153442AA8}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +932,7 @@
         <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
         <v>53</v>
@@ -1072,10 +1072,10 @@
         <v>74</v>
       </c>
       <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
         <v>75</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
